--- a/Cronograma.xlsx
+++ b/Cronograma.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Fase</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>Ensaio em voo</t>
+  </si>
+  <si>
+    <t>Submissão para conferência internacional: SSIV 2015</t>
   </si>
 </sst>
 </file>
@@ -166,8 +169,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -226,7 +233,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="29">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -239,6 +246,8 @@
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -251,6 +260,8 @@
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -583,15 +594,15 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W6" sqref="W6"/>
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
     <col min="2" max="3" width="6.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.6640625" bestFit="1" customWidth="1"/>
@@ -653,7 +664,7 @@
         <v>42401</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="60" customHeight="1">
+    <row r="2" spans="1:15" ht="50" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -672,7 +683,7 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
     </row>
-    <row r="3" spans="1:15" ht="60">
+    <row r="3" spans="1:15" ht="50" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -691,16 +702,16 @@
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
     </row>
-    <row r="4" spans="1:15" ht="60" customHeight="1">
+    <row r="4" spans="1:15" ht="50" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
+      <c r="D4" s="5"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
-      <c r="G4" s="5"/>
+      <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -710,51 +721,51 @@
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
     </row>
-    <row r="5" spans="1:15" ht="60" customHeight="1">
+    <row r="5" spans="1:15" ht="50" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="G5" s="5"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
-      <c r="M5" s="5"/>
+      <c r="M5" s="9"/>
       <c r="N5" s="9"/>
-      <c r="O5" s="4"/>
-    </row>
-    <row r="6" spans="1:15" ht="60" customHeight="1">
+      <c r="O5" s="9"/>
+    </row>
+    <row r="6" spans="1:15" ht="50" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
       <c r="M6" s="5"/>
       <c r="N6" s="9"/>
       <c r="O6" s="4"/>
     </row>
-    <row r="7" spans="1:15" ht="60" customHeight="1">
+    <row r="7" spans="1:15" ht="50" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -767,16 +778,16 @@
       <c r="N7" s="9"/>
       <c r="O7" s="4"/>
     </row>
-    <row r="8" spans="1:15" ht="60" customHeight="1">
+    <row r="8" spans="1:15" ht="50" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
@@ -786,75 +797,94 @@
       <c r="N8" s="9"/>
       <c r="O8" s="4"/>
     </row>
-    <row r="9" spans="1:15" ht="60" customHeight="1">
+    <row r="9" spans="1:15" ht="50" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="9"/>
       <c r="O9" s="4"/>
     </row>
-    <row r="10" spans="1:15" ht="60" customHeight="1">
+    <row r="10" spans="1:15" ht="50" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
-      <c r="O10" s="5"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="B12" s="11" t="s">
+      <c r="O10" s="4"/>
+    </row>
+    <row r="11" spans="1:15" ht="50" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="5"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="B13" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="12" t="s">
+      <c r="C13" s="11"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="12" t="s">
+      <c r="F13" s="12"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="12" t="s">
+      <c r="I13" s="12"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="L12" s="12"/>
+      <c r="L13" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="K13:L13"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="72" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" scale="67" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>
